--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
@@ -128,8 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -436,94 +435,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
@@ -128,7 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -435,95 +436,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
@@ -20,17 +20,13 @@
   </si>
   <si>
     <t xml:space="preserve">Named for one of the mythical ravens that aided the Norse god Odin and piloted by Sergeant Odin Sigurd of the Free Rasalhague Republic. The Huginn is armed for close range combat, mounting paired Machine Guns in each arm in support of right torso SRM-6 and left torso Streak SRM-2.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;
----
-Named for one of the mythical ravens that aided the Norse god Odin and piloted by Sergeant Odin Sigurd of the Free Rasalhague Republic. The Huginn is armed for close range combat, mounting paired Machine Guns in each arm in support of right torso SRM-6 and left torso Streak SRM-2.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Назван в честь одного из мифических воронов, которые помогали скандинавскому богу Одину и пилотировался сержантом Одином Сигурдом из Свободной Расалхагской Республики. Huginn вооружен для ближнего боя, имеет спаренные пулеметы в каждой руке, а так же пусковую установку SRM-6 на правой части торса и пусковую установку Streak SRM-2 на левой части торса.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_huginn_RVN-H.StockRole</t>
@@ -55,17 +51,13 @@
   </si>
   <si>
     <t xml:space="preserve">Named for one of the mythical ravens that aided the Norse god Odin. The Muninn is armed for long range combat, carrying a incendiary LRM alongside a single Bombast Laser.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;
----
-Named for one of the mythical ravens that aided the Norse god Odin. The Muninn is armed for long range combat, carrying a incendiary LRM alongside a single Bombast Laser.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Jammer&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Назван в честь одного из мифических воронов, которые помогали скандинавскому богу Одину. Muninn вооружен для боя на дальней дистанции LRM с зажигательными ракетами и одним Bombast Laser.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_muninn_RVN-M.StockRole</t>
@@ -97,23 +89,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +124,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,27 +419,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="75.140625" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -460,6 +455,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -471,16 +469,22 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -493,6 +497,9 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -504,31 +511,41 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">Назван в честь одного из мифических воронов, которые помогали скандинавскому богу Одину и пилотировался сержантом Одином Сигурдом из Свободной Расалхагской Республики. Huginn вооружен для ближнего боя, имеет спаренные пулеметы в каждой руке, а так же пусковую установку SRM-6 на правой части торса и пусковую установку Streak SRM-2 на левой части торса.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_huginn_RVN-H.StockRole</t>
@@ -57,7 +57,7 @@
   <si>
     <t xml:space="preserve">Назван в честь одного из мифических воронов, которые помогали скандинавскому богу Одину. Muninn вооружен для боя на дальней дистанции LRM с зажигательными ракетами и одним Bombast Laser.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_muninn_RVN-M.StockRole</t>
@@ -120,11 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,13 +423,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="75.140625" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -438,7 +440,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -452,7 +454,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -466,7 +468,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -480,7 +482,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -494,7 +496,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -508,7 +510,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -522,7 +524,7 @@
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2">
@@ -536,7 +538,7 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
@@ -25,7 +25,7 @@
   </si>
   <si>
     <t xml:space="preserve">Назван в честь одного из мифических воронов, которые помогали скандинавскому богу Одину и пилотировался сержантом Одином Сигурдом из Свободной Расалхагской Республики. Huginn вооружен для ближнего боя, имеет спаренные пулеметы в каждой руке, а так же пусковую установку SRM-6 на правой части торса и пусковую установку Streak SRM-2 на левой части торса.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t xml:space="preserve">Назван в честь одного из мифических воронов, которые помогали скандинавскому богу Одину. Muninn вооружен для боя на дальней дистанции LRM с зажигательными ракетами и одним Bombast Laser.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Jammer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Глушитель&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -423,14 +423,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="75.140625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
